--- a/biology/Médecine/Liseré_de_Burton/Liseré_de_Burton.xlsx
+++ b/biology/Médecine/Liseré_de_Burton/Liseré_de_Burton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liser%C3%A9_de_Burton</t>
+          <t>Liseré_de_Burton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le liseré de Burton est un liseré gingival gris à bleu ardoise dû à l'intoxication par le plomb ou les dérivés du plomb (saturnisme).
 Il tire son nom du médecin anglais Henry Burton, né en 1799 et mort en 1849), qui a décrit ce symptôme le premier en 1840. Les anglophones parlent de Burtonian line ou de Burton's line.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liser%C3%A9_de_Burton</t>
+          <t>Liseré_de_Burton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Valeur en tant que symptôme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce liseré n'apparait pas toujours. Il peut être discret, et s'il est lié au biofilm bactérien qui se développe à l'interface dents-gencives, il pourrait être de plus en plus rare en raison d'une meilleure hygiène bucco-dentaire.
-C'est cependant encore un signe reconnu[1] de saturnisme quand il est présent[2]).
-La muqueuse buccale semble aussi parfois pouvoir se colorer en lien avec un saturnisme ; sans doute en lien avec la présence de traces de mercure, d'argent, de cuivre et de fer qui forment des pigments dans les tissus subépithéliaux de la muqueuse[3]
+C'est cependant encore un signe reconnu de saturnisme quand il est présent).
+La muqueuse buccale semble aussi parfois pouvoir se colorer en lien avec un saturnisme ; sans doute en lien avec la présence de traces de mercure, d'argent, de cuivre et de fer qui forment des pigments dans les tissus subépithéliaux de la muqueuse
 </t>
         </is>
       </c>
